--- a/biology/Histoire de la zoologie et de la botanique/Henry_Moule/Henry_Moule.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Moule/Henry_Moule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Moule, né le 27 janvier 1801 à Melksham, Wiltshire et mort le 3 février 1880 à Fordington, était un vicaire anglais de l'Église d'Angleterre et l'inventeur du « Dry Earth System » (un type de toilettes sèches)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Moule, né le 27 janvier 1801 à Melksham, Wiltshire et mort le 3 février 1880 à Fordington, était un vicaire anglais de l'Église d'Angleterre et l'inventeur du « Dry Earth System » (un type de toilettes sèches).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Moule est né le 27 janvier 1801 à Melksham, Wiltshire. Il s'est marié en 1824 à Melksham, Wiltshire avec Mary Mullett Evans et eut 8 enfants :
 Henry Moule est mort le 3 février 1880 à Fordington (actuellement Dorchester).
@@ -545,17 +559,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Toilettes sèches utilisant de la terre
-En 1788, Mirabeau écrit, à propos de l’entreprise des frères Périer consistant à distribuer aux logements parisiens de l’eau pompée dans la Seine, en aval d’un égout : « c’est verser son pot de chambre dans sa carafe ».
+          <t>Toilettes sèches utilisant de la terre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1788, Mirabeau écrit, à propos de l’entreprise des frères Périer consistant à distribuer aux logements parisiens de l’eau pompée dans la Seine, en aval d’un égout : « c’est verser son pot de chambre dans sa carafe ».
 Au milieu du XIXe siècle, à Londres, plusieurs systèmes de toilettes sèches ont été mis au point et commercialisés, comme l’Earth-Closet de Henry Moule, breveté, fabriqué et vendu pendant plusieurs décennies. Un peu partout dans le monde, des peuples ont trouvé des solutions simples, non technologiques, parfaitement respectueuses de l’eau, et aussi efficaces pour la maîtrise du risque sanitaire que pour la valorisation du potentiel fertilisant : ainsi les antiques toilettes à séparation chinoises, maliennes, yéménites (ces dernières à chaque étage dans des immeubles de 4 ou 5 niveaux), la toilette à poussière népalaise, la toilette à litière si simple et si peu coûteuse.
-Le catalogue d'Henry Moule propose entre autres des toilettes qui déversent de façon automatique une quantité de terre définie, une toilette chauffant pour supprimer les odeurs, des systèmes ventilés et d'autres modèles plus basiques pour les collectivités[2].
+Le catalogue d'Henry Moule propose entre autres des toilettes qui déversent de façon automatique une quantité de terre définie, une toilette chauffant pour supprimer les odeurs, des systèmes ventilés et d'autres modèles plus basiques pour les collectivités.
 Si l'odeur est particulièrement insupportable pendant cet été 1858 (Grande Puanteur), elle est aussi considérée comme pestilentielle et potentiellement mortelle, car porteuse du choléra. John Snow avait ainsi mis en évidence en 1854 que l'eau était responsable de la contamination.
 Henry Moule fut aussi un publisciste efficace et utilisa des brochures pour promouvoir les avantages de l'assainissement basé sur la terre et la folie d'un assainissement lié à l'eau. En 1860, un certain nombre d'écoles passèrent des toilettes à eau aux toilettes à terre car elles les considéraient plus sûres et moins chères d'entretien. En 1868, 148 modèles de ces toilettes furent utilisés dans un camp militaire à Wimbledon. 
 D'ailleurs, 40 d'entre elles furent utilisées par 2 000 hommes sans problèmes d'odeur. 
 Dans les années 1870, des modèles furent développés avec une cuvette de séchage supplémentaire, d'autres comportaient des tuyaux de ventilation et des abattants se fermant d'eux-mêmes.
 Tout était déjà bien connu et relativement au point et pourtant...
-Ouvrages (sélection)
-1845 Barrack Sermons (Sermons de caserne)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henry_Moule</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_Moule</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travail</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages (sélection)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1845 Barrack Sermons (Sermons de caserne)
 1861 National health and wealth, instead of the disease, nuisance, expense, and waste, caused by cess-pools and water-drainage (Santé et richesse de la nation, au lieu de la maladie, des inconvénients, de la dépense et du gaspillage, causés par les fosses d'aisance et les égouts)
 1870 The Science of Manure as the Food of Plants (La Science du fumier, en tant que nourriture des plantes)</t>
         </is>
